--- a/biology/Médecine/1917_en_santé_et_médecine/1917_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1917_en_santé_et_médecine/1917_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1917_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1917_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1917 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1917_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1917_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3 septembre : Félix d'Hérelle fait annoncer par Émile Roux, à l'Académie des sciences, sa découverte de la bactériophagie[1].
-1er octobre : loi française sur la répression de l'ivresse publique[2].
-19 décembre : loi française sur les établissements dangereux, insalubres ou incommodes[3].
-Le médecin allemand H. Günther décrit la sébocystomatose[4].
-Le médecin japonais Shinobu Ishihara publie un test pour la détection du daltonisme[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3 septembre : Félix d'Hérelle fait annoncer par Émile Roux, à l'Académie des sciences, sa découverte de la bactériophagie.
+1er octobre : loi française sur la répression de l'ivresse publique.
+19 décembre : loi française sur les établissements dangereux, insalubres ou incommodes.
+Le médecin allemand H. Günther décrit la sébocystomatose.
+Le médecin japonais Shinobu Ishihara publie un test pour la détection du daltonisme.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1917_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1917_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gustave Roussy et Jean Lhermitte, Les Psychonévroses de guerre[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gustave Roussy et Jean Lhermitte, Les Psychonévroses de guerre.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1917_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1917_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille Copley : Émile Roux bactériologiste et immunologiste français, cofondateur de l'Institut Pasteur, découvreur du sérum antidiphtérique.</t>
         </is>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1917_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1917_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Janvier
@@ -675,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1917_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1917_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,7 +713,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Janvier
